--- a/Bot-parser-from-tg-group/tests/exit_map.xlsx
+++ b/Bot-parser-from-tg-group/tests/exit_map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A2:A256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,329 +433,1279 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="n">
-        <v>3</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2</v>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
